--- a/Lab 3 - Mostek Wheatstone'a/spr32_dane.xlsx
+++ b/Lab 3 - Mostek Wheatstone'a/spr32_dane.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Clouds\SourceTree\GitHub\Ewastachow\SprawozdaniaFizyka\Lab 3 - Mostek Wheatstone'a\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9060"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>Opór wzorcowy</t>
   </si>
@@ -55,11 +50,14 @@
   <si>
     <t>Połączenie szeregowe (R1 z R2)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -233,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -271,20 +269,11 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -347,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:T39"/>
+  <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -603,12 +592,17 @@
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="15">
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15">
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="15">
+    <row r="6" spans="2:13" ht="15">
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
@@ -643,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="15">
+    <row r="7" spans="2:13" ht="15">
       <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
@@ -678,7 +672,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="15">
+    <row r="8" spans="2:13" ht="15">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
@@ -723,7 +717,7 @@
         <v>13.97749196141479</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="15">
+    <row r="9" spans="2:13" ht="15">
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
@@ -739,13 +733,13 @@
         <v>0.40133355282192973</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="15">
+    <row r="11" spans="2:13" ht="15">
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="3:13" ht="15">
+    <row r="12" spans="2:13" ht="15">
       <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
@@ -780,7 +774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="15">
+    <row r="13" spans="2:13" ht="15">
       <c r="C13" s="9" t="s">
         <v>1</v>
       </c>
@@ -815,7 +809,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="15">
+    <row r="14" spans="2:13" ht="15">
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
@@ -860,7 +854,7 @@
         <v>19.538200339558575</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="15">
+    <row r="15" spans="2:13" ht="15">
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
@@ -884,103 +878,206 @@
       <c r="M15" s="20"/>
     </row>
     <row r="17" spans="3:20" ht="15">
-      <c r="C17" s="4"/>
+      <c r="C17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="3:20" ht="15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="C18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="3:20" ht="15">
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="C19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>640</v>
+      </c>
+      <c r="E19" s="2">
+        <v>531</v>
+      </c>
+      <c r="F19" s="2">
+        <v>500</v>
+      </c>
+      <c r="G19" s="2">
+        <v>461</v>
+      </c>
+      <c r="H19" s="2">
+        <v>414</v>
+      </c>
+      <c r="I19" s="2">
+        <v>436</v>
+      </c>
+      <c r="J19" s="2">
+        <v>575</v>
+      </c>
+      <c r="K19" s="2">
+        <v>545</v>
+      </c>
+      <c r="L19" s="2">
+        <v>526</v>
+      </c>
+      <c r="M19" s="2">
+        <v>479</v>
+      </c>
     </row>
     <row r="20" spans="3:20" ht="15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="C20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" ref="D20:M20" si="10">(D18*D19)/(1000-D19)</f>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="10"/>
+        <v>33.965884861407247</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="10"/>
+        <v>34.211502782931355</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="10"/>
+        <v>35.324232081911262</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="10"/>
+        <v>34.787234042553195</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="10"/>
+        <v>33.823529411764703</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="10"/>
+        <v>33.53846153846154</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="10"/>
+        <v>35.510548523206751</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="10"/>
+        <v>34.936660268714014</v>
+      </c>
     </row>
     <row r="21" spans="3:20" ht="15">
-      <c r="C21" s="4"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="C21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17">
+        <f>AVERAGE(D20:M20)</f>
+        <v>34.665360906650562</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17">
+        <f>STDEV(D20:M20)/SQRT(10)</f>
+        <v>0.23130489642121646</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="16">
+        <f>D15+D9</f>
+        <v>33.384538548905368</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="16">
+        <f>SQRT(F15^2+F9^2)</f>
+        <v>0.45016038149379217</v>
+      </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
     <row r="23" spans="3:20" ht="15">
-      <c r="C23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="C23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="3:20" ht="15">
       <c r="C24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J24" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K24" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L24" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M24" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="15">
@@ -988,337 +1085,120 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="E25" s="2">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="F25" s="2">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="G25" s="2">
+        <v>526</v>
+      </c>
+      <c r="H25" s="2">
+        <v>496</v>
+      </c>
+      <c r="I25" s="2">
+        <v>467</v>
+      </c>
+      <c r="J25" s="2">
+        <v>434</v>
+      </c>
+      <c r="K25" s="2">
         <v>461</v>
       </c>
-      <c r="H25" s="2">
-        <v>414</v>
-      </c>
-      <c r="I25" s="2">
-        <v>436</v>
-      </c>
-      <c r="J25" s="2">
-        <v>575</v>
-      </c>
-      <c r="K25" s="2">
-        <v>545</v>
-      </c>
       <c r="L25" s="2">
-        <v>526</v>
+        <v>427</v>
       </c>
       <c r="M25" s="2">
-        <v>479</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="3:20" ht="15">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="18">
         <f>(D24*D25)/(1000-D25)</f>
-        <v>35.555555555555557</v>
+        <v>5.8757396449704142</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" ref="E26" si="10">(E24*E25)/(1000-E25)</f>
-        <v>33.965884861407247</v>
+        <f t="shared" ref="E26" si="11">(E24*E25)/(1000-E25)</f>
+        <v>5.8039215686274508</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" ref="F26" si="11">(F24*F25)/(1000-F25)</f>
-        <v>35</v>
+        <f t="shared" ref="F26" si="12">(F24*F25)/(1000-F25)</f>
+        <v>6.3636363636363633</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" ref="G26" si="12">(G24*G25)/(1000-G25)</f>
-        <v>34.211502782931355</v>
+        <f t="shared" ref="G26" si="13">(G24*G25)/(1000-G25)</f>
+        <v>6.6582278481012658</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" ref="H26" si="13">(H24*H25)/(1000-H25)</f>
-        <v>35.324232081911262</v>
+        <f t="shared" ref="H26" si="14">(H24*H25)/(1000-H25)</f>
+        <v>6.8888888888888893</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" ref="I26" si="14">(I24*I25)/(1000-I25)</f>
-        <v>34.787234042553195</v>
+        <f t="shared" ref="I26" si="15">(I24*I25)/(1000-I25)</f>
+        <v>7.0093808630393992</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" ref="J26" si="15">(J24*J25)/(1000-J25)</f>
-        <v>33.823529411764703</v>
+        <f t="shared" ref="J26" si="16">(J24*J25)/(1000-J25)</f>
+        <v>6.9010600706713783</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" ref="K26" si="16">(K24*K25)/(1000-K25)</f>
-        <v>33.53846153846154</v>
+        <f t="shared" ref="K26" si="17">(K24*K25)/(1000-K25)</f>
+        <v>8.5528756957328387</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" ref="L26" si="17">(L24*L25)/(1000-L25)</f>
-        <v>35.510548523206751</v>
+        <f t="shared" ref="L26" si="18">(L24*L25)/(1000-L25)</f>
+        <v>8.1972076788830712</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" ref="M26" si="18">(M24*M25)/(1000-M25)</f>
-        <v>34.936660268714014</v>
+        <f t="shared" ref="M26" si="19">(M24*M25)/(1000-M25)</f>
+        <v>7.6677265500794913</v>
       </c>
     </row>
     <row r="27" spans="3:20" ht="15">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="17">
         <f>AVERAGE(D26:M26)</f>
-        <v>34.665360906650562</v>
+        <v>6.9918665172630554</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="17">
         <f>STDEV(D26:M26)/SQRT(10)</f>
-        <v>0.23130489642121646</v>
+        <v>0.28922273219490796</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="16">
-        <f>D15+D21</f>
-        <v>19.767960909773969</v>
+        <f>(D9*D15)/(D9+D15)</f>
+        <v>8.0627735531206763</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>6</v>
       </c>
       <c r="J27" s="16">
-        <f>SQRT(F15^2+F21^2)</f>
-        <v>0.20390132036346373</v>
+        <f>SQRT((((D9*D9)/(D9+D15)^2)*F9)^2+(((D15*D15)/(D9+D15)^2)*F15)^2)</f>
+        <v>9.7819242307017995E-2</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
     </row>
-    <row r="29" spans="3:20" ht="15">
-      <c r="C29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="3:20" ht="15">
-      <c r="C30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>6</v>
-      </c>
-      <c r="H30" s="2">
-        <v>7</v>
-      </c>
-      <c r="I30" s="2">
-        <v>8</v>
-      </c>
-      <c r="J30" s="2">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2">
-        <v>10</v>
-      </c>
-      <c r="L30" s="2">
-        <v>11</v>
-      </c>
-      <c r="M30" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" ht="15">
-      <c r="C31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>662</v>
-      </c>
-      <c r="E31" s="2">
-        <v>592</v>
-      </c>
-      <c r="F31" s="2">
-        <v>560</v>
-      </c>
-      <c r="G31" s="2">
-        <v>526</v>
-      </c>
-      <c r="H31" s="2">
-        <v>496</v>
-      </c>
-      <c r="I31" s="2">
-        <v>467</v>
-      </c>
-      <c r="J31" s="2">
-        <v>434</v>
-      </c>
-      <c r="K31" s="2">
-        <v>461</v>
-      </c>
-      <c r="L31" s="2">
-        <v>427</v>
-      </c>
-      <c r="M31" s="2">
-        <v>371</v>
-      </c>
+    <row r="31" spans="3:20">
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="3:20" ht="15">
-      <c r="C32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="18">
-        <f>(D30*D31)/(1000-D31)</f>
-        <v>5.8757396449704142</v>
-      </c>
-      <c r="E32" s="18">
-        <f t="shared" ref="E32" si="19">(E30*E31)/(1000-E31)</f>
-        <v>5.8039215686274508</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" ref="F32" si="20">(F30*F31)/(1000-F31)</f>
-        <v>6.3636363636363633</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" ref="G32" si="21">(G30*G31)/(1000-G31)</f>
-        <v>6.6582278481012658</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" ref="H32" si="22">(H30*H31)/(1000-H31)</f>
-        <v>6.8888888888888893</v>
-      </c>
-      <c r="I32" s="18">
-        <f t="shared" ref="I32" si="23">(I30*I31)/(1000-I31)</f>
-        <v>7.0093808630393992</v>
-      </c>
-      <c r="J32" s="18">
-        <f t="shared" ref="J32" si="24">(J30*J31)/(1000-J31)</f>
-        <v>6.9010600706713783</v>
-      </c>
-      <c r="K32" s="18">
-        <f t="shared" ref="K32" si="25">(K30*K31)/(1000-K31)</f>
-        <v>8.5528756957328387</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" ref="L32" si="26">(L30*L31)/(1000-L31)</f>
-        <v>8.1972076788830712</v>
-      </c>
-      <c r="M32" s="18">
-        <f t="shared" ref="M32" si="27">(M30*M31)/(1000-M31)</f>
-        <v>7.6677265500794913</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="15">
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="17">
-        <f>AVERAGE(D32:M32)</f>
-        <v>6.9918665172630554</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="17">
-        <f>STDEV(D32:M32)/SQRT(10)</f>
-        <v>0.28922273219490796</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="16">
-        <f>(D9*D15)/(D9+D15)</f>
-        <v>8.0627735531206763</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="16">
-        <f>SQRT((((D9*D9)/(D9+D15)^2)*F9)^2+(((D15*D15)/(D9+D15)^2)*F15)^2)</f>
-        <v>9.7819242307017995E-2</v>
-      </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-    </row>
-    <row r="35" spans="3:13" ht="15">
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="3:13" ht="15">
-      <c r="C36" s="8"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="3:13" ht="15">
-      <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="3:13" ht="15">
-      <c r="C38" s="7"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-    </row>
-    <row r="39" spans="3:13" ht="15">
-      <c r="C39" s="4"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C35:H35"/>
+  <mergeCells count="1">
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Lab 3 - Mostek Wheatstone'a/spr32_dane.xlsx
+++ b/Lab 3 - Mostek Wheatstone'a/spr32_dane.xlsx
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -231,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -275,6 +278,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
@@ -583,7 +587,7 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -721,7 +725,7 @@
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="25">
         <f>AVERAGE(D8:M8)</f>
         <v>13.616577639131403</v>
       </c>
